--- a/matahata-cli/src/main/resources/mamona/new.xlsx
+++ b/matahata-cli/src/main/resources/mamona/new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Oyster</t>
   </si>
@@ -68,22 +68,106 @@
     <t>Northfields Station</t>
   </si>
   <si>
-    <t>167,alala</t>
-  </si>
-  <si>
     <t>Ania</t>
   </si>
   <si>
     <t>Watford Junction Station</t>
   </si>
   <si>
-    <t>Łuki</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>29/09/2013</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Barclays 1CP</t>
+  </si>
+  <si>
+    <t>gazetka?</t>
+  </si>
+  <si>
+    <t>FOODIN</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>Shop South Ealing</t>
+  </si>
+  <si>
+    <t>ZWORT</t>
+  </si>
+  <si>
+    <t>Northfields</t>
+  </si>
+  <si>
+    <t>CURR</t>
+  </si>
+  <si>
+    <t>WITHDRAWAL</t>
+  </si>
+  <si>
+    <t>Nisa Northfields</t>
+  </si>
+  <si>
+    <t>DRINKIN</t>
+  </si>
+  <si>
+    <t>CUR</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>[TRAVEL PACK]</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>[IPHONE CASE]</t>
+  </si>
+  <si>
+    <t>C Chaudry</t>
+  </si>
+  <si>
+    <t>RENT</t>
+  </si>
+  <si>
+    <t>Shop Brentford</t>
+  </si>
+  <si>
+    <t>British Red Cross</t>
+  </si>
+  <si>
+    <t>CHARITY</t>
+  </si>
+  <si>
+    <t>Epam</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>TIKEN</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>ATM Ealing Broadway</t>
+  </si>
+  <si>
+    <t>Sainsbury's Local South Ealing</t>
+  </si>
+  <si>
+    <t>WHSmith Waterloo</t>
+  </si>
+  <si>
+    <t>Waitrose Canary Wharf</t>
   </si>
 </sst>
 </file>
@@ -402,158 +486,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>7.45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
+      <c r="E8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="E11">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>3480.42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>167.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
+      <c r="C19" t="s">
         <v>10</v>
+      </c>
+      <c r="E19">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>8.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>2.99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>1100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>1.84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/matahata-cli/src/main/resources/mamona/new.xlsx
+++ b/matahata-cli/src/main/resources/mamona/new.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\git\matahata\matahata-cli\src\main\resources\mamona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter_konopacki\git\matahata\matahata-cli\src\main\resources\mamona\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Oyster</t>
   </si>
@@ -168,6 +168,45 @@
   </si>
   <si>
     <t>Waitrose Canary Wharf</t>
+  </si>
+  <si>
+    <t>AMELKA</t>
+  </si>
+  <si>
+    <t>Dodatek :)</t>
+  </si>
+  <si>
+    <t>Natural History Museum</t>
+  </si>
+  <si>
+    <t>Sowa</t>
+  </si>
+  <si>
+    <t>Tesco Ealing Broadway</t>
+  </si>
+  <si>
+    <t>Szlugi</t>
+  </si>
+  <si>
+    <t>Browar</t>
+  </si>
+  <si>
+    <t>Jakies zarlo</t>
+  </si>
+  <si>
+    <t>Tesco Express Wembley</t>
+  </si>
+  <si>
+    <t>JJ Moons Wembley</t>
+  </si>
+  <si>
+    <t>DRINKOUT</t>
+  </si>
+  <si>
+    <t>Lody Amelci :)</t>
+  </si>
+  <si>
+    <t>Gruz Wembley</t>
   </si>
 </sst>
 </file>
@@ -204,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +539,7 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,12 +851,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>46</v>
       </c>
@@ -829,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
@@ -843,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -854,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -865,7 +906,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -876,6 +917,138 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47">
+        <v>4.13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>3.19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>1.75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>8.9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>1.05</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>12.22</v>
+      </c>
+      <c r="F57" t="s">
         <v>29</v>
       </c>
     </row>
